--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxCruiser.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxCruiser.xlsx
@@ -834,7 +834,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxCruiser.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxCruiser.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -246,6 +246,15 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>SendMSgChainOff</t>
+  </si>
+  <si>
+    <t>關閉訊息通知交易記號</t>
+  </si>
+  <si>
+    <t>1:無連動交易</t>
   </si>
 </sst>
 </file>
@@ -831,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
@@ -1059,70 +1068,91 @@
       <c r="A14" s="15">
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>20</v>
+      <c r="B14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="21" customFormat="1">
       <c r="A15" s="15">
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="18">
-        <v>6</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="15">
         <v>8</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="18"/>
+        <v>23</v>
+      </c>
+      <c r="E16" s="18">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="15">
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="15">
+        <v>10</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E18" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="15"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
